--- a/records/Test scoring records.xlsx
+++ b/records/Test scoring records.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nourchalouhi/Documents/COMP4092 Summarising Biomedical Workpapers to the Layperson/Summarisation Testing/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nourchalouhi/Documents/COMP4092 Summarising Biomedical Workpapers to the Layperson/Summarisation Testing/records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E6D82-31A7-AC48-94C7-306DF2C443A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E0D88A-2E74-424F-AE89-5EADD7DD0838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3A91DC59-5475-2240-A00C-48D3F3E6F925}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{3A91DC59-5475-2240-A00C-48D3F3E6F925}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>ROUGE 1</t>
   </si>
@@ -68,9 +68,6 @@
     <t>PLOS</t>
   </si>
   <si>
-    <t>Chain of Though: f'Given the following biomedical abstract, create a plain language summary that is understandable without using biomedical jargon. Follow these steps: Identify Key Concepts: Start by identifying the main concepts and findings in the abstract. What is the study about? What are the main results? Simplify Technical Language: Replace any complex biomedical terms with simpler language that a general audience can understand. If necessary, provide brief explanations for concepts that might still be challenging. Highlight the Significance: Explain why the findings are important. How does this research contribute to our understanding of the topic? Why should a non-expert care about these results?Provide Context: Offer some background information to help readers understand the broader context of the research. How does this study fit into the larger field of biomedical science?Describe the Methods Briefly**: Mention the key methods used in the study in a way that is easy to grasp, without going into too much technical detail. Focus on the approach rather than the specifics. Summarize the overall impact of the study. What are the potential applications of these findings? How might this research influence future studies or medical practices? Now, generate the plain language summary: {abstract}') (50 paper)</t>
-  </si>
-  <si>
     <t>Persona Imagine you are a science communicator who is passionate about making complex biomedical research accessible to the general public. Your goal is to create a plain language summary that anyone, regardless of their background, can understand and find engaging. Start by thinking about who will be reading this summary—they have no background in biomedical science but are curious and eager to learn. Identify any complex terms or concepts in the abstract and replace them with simpler language or explain them in a way that a non-expert would understand. Frame the summary in a way that feels like you're telling a story—explain what the research is about, why it matters, and make it relatable by connecting it to everyday experiences or broader societal issues. Focus on the most important findings—what did the researchers discover and why are these results significant? Briefly explain how this study fits into the larger picture of biomedical research or healthcare, and conclude by discussing the potential implications of the research or what the next steps could be for researchers or healthcare professionals. Now, create the plain language summary with this mindset: {abstract}</t>
   </si>
   <si>
@@ -96,6 +93,51 @@
   </si>
   <si>
     <t>response1 = model.generate_content(f'Given the following biomedical abstract, create a plain language summary that is understandable without using biomedical jargon. Follow these steps: - Start by identifying the core topic and the main findings in the abstract. What is the primary focus of the study? Summarize the key results and conclusions. - Translate any complex biomedical terms into simpler language that a layperson can understand. Where necessary, offer brief explanations or analogies that a general audience can relate to. Avoid oversimplifying to the point of losing critical information. Explain the importance of the findings in clear and concise terms. Why is this research relevant? Discuss the implications for the general public or specific groups if applicable. - Offer essential background information that situates the study within the broader field of biomedical science. Connect the study’s focus to well-known issues or public health concerns to make it more relatable. Mention the key methods used in the study, focusing on the approach rather than technical details. Explain the methodology in a way that is easy to understand, ensuring that the reader can grasp the study’s reliability without needing in-depth knowledge. - Summarize the potential impact of the study’s findings. What are the possible applications? How might this research influence future studies, healthcare practices, or public health policies? - Ensure that the summary is clear, concise, and avoids unnecessary detail. The goal is to inform, not to overwhelm. Now, generate the plain language summary: {abstract}')</t>
+  </si>
+  <si>
+    <t>Summarise the following biomedical research abstract in a way that a healthcare professional without a specific background in this field can understand. Use language that strikes a balance between clarity and technical depth, highlighting the key findings, methods, and the broader implications of the study. Abstract: {abstract}</t>
+  </si>
+  <si>
+    <t>Summarise the following biomedical abstract in simple terms that a high school student could understand. Focus on the main discoveries, explain any complex terms in easy-to-grasp language, and avoid unnecessary technical details. Abstract: {abstract}</t>
+  </si>
+  <si>
+    <t>Break down the following biomedical abstract and explain the importance of the study in terms of public health. Begin by summarising the key findings, then explain why these results are significant for improving public health or healthcare practices. Finally, discuss any potential future applications or next steps in research. Abstract: {abstract}</t>
+  </si>
+  <si>
+    <t>Summarise the following biomedical research abstract as if explaining it to a colleague from a completely different scientific field. Keep the explanation clear, concise, and focused on the big picture findings and implications of the research. Abstract: {abstract}</t>
+  </si>
+  <si>
+    <t>Explain the following biomedical abstract by breaking down the research process step-by-step. First, summarise the methodology—how was the study conducted? What were the key methods used? Then, explain the main outcomes of the study and why they matter in the context of biomedical science or public health. Abstract: {abstract}</t>
+  </si>
+  <si>
+    <t>Chain of Though: f'Given the following biomedical abstract, create a plain language summary that is understandable without using biomedical jargon. Follow these steps: Identify Key Concepts: Start by identifying the main concepts and findings in the abstract. What is the study about? What are the main results? Simplify Technical Language: Replace any complex biomedical terms with simpler language that a general audience can understand. If necessary, provide brief explanations for concepts that might still be challenging. Highlight the Significance: Explain why the findings are important. How does this research contribute to our understanding of the topic? Why should a non-expert care about these results?Provide Context: Offer some background information to help readers understand the broader context of the research. How does this study fit into the larger field of biomedical science?Describe the Methods Briefly: Mention the key methods used in the study in a way that is easy to grasp, without going into too much technical detail. Focus on the approach rather than the specifics. Summarize the overall impact of the study. What are the potential applications of these findings? How might this research influence future studies or medical practices? Now, generate the plain language summary: {abstract}') (50 paper)</t>
+  </si>
+  <si>
+    <t>elife.json - train</t>
+  </si>
+  <si>
+    <t>plos_dev.plos</t>
+  </si>
+  <si>
+    <t>Corpora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  response2 = model.generate_content(
+            f"Summarise the following biomedical research paper in simple language for a general audience.\n\n"
+            f"**Title**: \"{document.get('title', 'No title available')}\"\n"
+            f"**Year**: {document.get('year', 'No year available')}\n\n"
+            f"**Abstract**:\n{abstract}\n\n"
+            "**Key Sections**:\n"
+            + "\n".join([f"- {section}" for section in document.get('sections', [])]) + "\n\n"
+            f"**Keywords**: {', '.join(document.get('keywords', ['No keywords available']))}\n\n"
+            "Instructions:\n"
+            "- Start by explaining the central topic of the paper as reflected by the title.\n"
+            "- Summarise the abstract in non-technical terms that a layperson can understand.\n"
+            "- Explain the main findings of the paper and why they are important.\n"
+            "- Use the key sections to highlight the structure of the paper and provide context.\n"
+            "- Define or simplify any complex biomedical terms or keywords that are crucial to understanding the study.\n\n"
+            "Now, generate a plain language summary of the paper."
+        )</t>
   </si>
 </sst>
 </file>
@@ -149,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -170,6 +212,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,41 +550,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8EBB46-99E5-EE42-811A-6CB8C06B906C}">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="66.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="5" width="26.33203125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -546,188 +595,397 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.4299</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>0.1086</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>0.21959999999999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>0.86550000000000005</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>11.3706</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.41970000000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>9.98E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>0.20449999999999999</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>0.85240000000000005</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>11.8079</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.36749999999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>0.18770000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.36459999999999998</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>0.1905</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="306" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.3957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>0.18740000000000001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>0.85119999999999996</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>10.1694</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.36009999999999998</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>0.16850000000000001</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>0.84519999999999995</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>9.016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.25369999999999998</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>0.12280000000000001</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>0.81720000000000004</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>9.0187000000000008</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="356" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="372" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J10" s="2">
+        <v>11.546799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>45532</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.39190000000000003</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8.1799999999999998E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.18440000000000001</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="H10" s="2">
-        <v>11.546799999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.3624</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="J11" s="2">
+        <v>13.228199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>45532</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.1706</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8.5307999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="J13" s="2">
+        <v>16.474399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10.8667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="J15" s="2">
+        <v>15.191700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="388" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.1125</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.82869999999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>11.216699999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -735,5 +993,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/records/Test scoring records.xlsx
+++ b/records/Test scoring records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nourchalouhi/Documents/COMP4092 Summarising Biomedical Workpapers to the Layperson/Summarisation Testing/records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E0D88A-2E74-424F-AE89-5EADD7DD0838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847066C8-4C85-214F-8BD8-D4883794BA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{3A91DC59-5475-2240-A00C-48D3F3E6F925}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3A91DC59-5475-2240-A00C-48D3F3E6F925}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>ROUGE 1</t>
   </si>
@@ -139,12 +139,21 @@
             "Now, generate a plain language summary of the paper."
         )</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +179,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -216,6 +232,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8EBB46-99E5-EE42-811A-6CB8C06B906C}">
   <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,26 +584,35 @@
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:10" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
